--- a/TOR330 Data/100x100trail/TOR330_2024.xlsx
+++ b/TOR330 Data/100x100trail/TOR330_2024.xlsx
@@ -3331,7 +3331,7 @@
     <t>D Haene Francois</t>
   </si>
   <si>
-    <t>Marmissolle  Benat</t>
+    <t>Marmissolle Benat</t>
   </si>
   <si>
     <t>Perrier Martin</t>
@@ -3373,7 +3373,7 @@
     <t>Letellier Jean Claude</t>
   </si>
   <si>
-    <t>Piquerez  Fabien</t>
+    <t>Piquerez Fabien</t>
   </si>
   <si>
     <t>Borzani Lisa</t>
@@ -3436,7 +3436,7 @@
     <t>Clark Andrew</t>
   </si>
   <si>
-    <t>Rocchi  Nicola</t>
+    <t>Rocchi Nicola</t>
   </si>
   <si>
     <t>Le Nocher Nicolas</t>
@@ -3469,7 +3469,7 @@
     <t>Poirot Johan</t>
   </si>
   <si>
-    <t>Lejeune  Emilien</t>
+    <t>Lejeune Emilien</t>
   </si>
   <si>
     <t>Minerva Vito</t>
@@ -3490,7 +3490,7 @@
     <t>Lohr Wolfgang</t>
   </si>
   <si>
-    <t>Santamaria  Lorenzo</t>
+    <t>Santamaria Lorenzo</t>
   </si>
   <si>
     <t>Djiakouris Andreas</t>
@@ -3643,7 +3643,7 @@
     <t>Fernandes Pedro</t>
   </si>
   <si>
-    <t>Benedetti  Maurizio</t>
+    <t>Benedetti Maurizio</t>
   </si>
   <si>
     <t>Dechavanne Stephane</t>
@@ -3721,7 +3721,7 @@
     <t>Bocchino Claudio</t>
   </si>
   <si>
-    <t>Fernemar  Thomas</t>
+    <t>Fernemar Thomas</t>
   </si>
   <si>
     <t>Parolin Alberto</t>
@@ -3742,7 +3742,7 @@
     <t>Bakas Ilias</t>
   </si>
   <si>
-    <t>Oliveira Machado Correia Pereira  Joao</t>
+    <t>Oliveira Machado Correia Pereira Joao</t>
   </si>
   <si>
     <t>Cardoso Pedro</t>
@@ -3790,7 +3790,7 @@
     <t>Thuegaz Gerard</t>
   </si>
   <si>
-    <t>Cordeiro  Arthur</t>
+    <t>Cordeiro Arthur</t>
   </si>
   <si>
     <t>Tousch Christine</t>
@@ -3820,7 +3820,7 @@
     <t>Moreau Matthieu</t>
   </si>
   <si>
-    <t>Hutchinson  G Brian</t>
+    <t>Hutchinson G Brian</t>
   </si>
   <si>
     <t>Rising Lisa</t>
@@ -3838,7 +3838,7 @@
     <t>D Antuono Roberto</t>
   </si>
   <si>
-    <t>Rouquie  Celine</t>
+    <t>Rouquie Celine</t>
   </si>
   <si>
     <t>Stevens Anthony</t>
@@ -3853,7 +3853,7 @@
     <t>Maino Mattia</t>
   </si>
   <si>
-    <t>Mariotti  Severino</t>
+    <t>Mariotti Severino</t>
   </si>
   <si>
     <t>Sciamanna Silvestro</t>
@@ -3877,13 +3877,13 @@
     <t>Lupis Alberto</t>
   </si>
   <si>
-    <t>Rigoni  Mirko</t>
+    <t>Rigoni Mirko</t>
   </si>
   <si>
     <t>Maggi Matteo</t>
   </si>
   <si>
-    <t>Bertelli  Mauro</t>
+    <t>Bertelli Mauro</t>
   </si>
   <si>
     <t>Bergero Davide</t>
@@ -4036,7 +4036,7 @@
     <t>Damblon Johnathan</t>
   </si>
   <si>
-    <t>Lacour  Bruno</t>
+    <t>Lacour Bruno</t>
   </si>
   <si>
     <t>Georis Sebastien</t>
@@ -4063,7 +4063,7 @@
     <t>Mereu Fabrice</t>
   </si>
   <si>
-    <t>Marques Dos Santos  Carlos Alberto</t>
+    <t>Marques Dos Santos Carlos Alberto</t>
   </si>
   <si>
     <t>Pelle Patrick</t>
@@ -4087,7 +4087,7 @@
     <t>Manson Paul</t>
   </si>
   <si>
-    <t>Molina  Maria Gabriela</t>
+    <t>Molina Maria Gabriela</t>
   </si>
   <si>
     <t>Planas Robert</t>
@@ -4165,13 +4165,13 @@
     <t>Mejia Sandra</t>
   </si>
   <si>
-    <t>Rorig Hans-Martin</t>
+    <t>Rorig Hans Martin</t>
   </si>
   <si>
     <t>Paesante Raffaele</t>
   </si>
   <si>
-    <t>Compan Olmo  Jose Manuel</t>
+    <t>Compan Olmo Jose Manuel</t>
   </si>
   <si>
     <t>Martino Julia</t>
@@ -4264,16 +4264,16 @@
     <t>Andreu Casademont Roger</t>
   </si>
   <si>
-    <t>Guemas Jean-Marie</t>
-  </si>
-  <si>
-    <t>Hornyak  Valeric</t>
+    <t>Guemas Jean Marie</t>
+  </si>
+  <si>
+    <t>Hornyak Valeric</t>
   </si>
   <si>
     <t>Velilla Abad Gloria</t>
   </si>
   <si>
-    <t>Velasco Barros  Chelo</t>
+    <t>Velasco Barros Chelo</t>
   </si>
   <si>
     <t>Garcia Cobos Jorge</t>
@@ -4288,7 +4288,7 @@
     <t>Pichler Sebastian</t>
   </si>
   <si>
-    <t>Svobodova  Michaela</t>
+    <t>Svobodova Michaela</t>
   </si>
   <si>
     <t>Patjane Juan</t>
@@ -4393,7 +4393,7 @@
     <t>Bahtijarevic Nikola</t>
   </si>
   <si>
-    <t>Figuccia  Federico</t>
+    <t>Figuccia Federico</t>
   </si>
   <si>
     <t>Stevens Alain</t>
@@ -4504,7 +4504,7 @@
     <t>Ikeda Yukihiro</t>
   </si>
   <si>
-    <t>Freret Jean-Louis</t>
+    <t>Freret Jean Louis</t>
   </si>
   <si>
     <t>Manterola Larraza Jose Ignacio</t>
@@ -4606,10 +4606,10 @@
     <t>Berger Laurent</t>
   </si>
   <si>
-    <t>Ciarfaglia  Giuseppe Roberto</t>
-  </si>
-  <si>
-    <t>Grasland Jean-Pierre</t>
+    <t>Ciarfaglia Giuseppe Roberto</t>
+  </si>
+  <si>
+    <t>Grasland Jean Pierre</t>
   </si>
   <si>
     <t>Fager Elias Ariel</t>
@@ -4687,10 +4687,10 @@
     <t>Fossati Lorenzo</t>
   </si>
   <si>
-    <t>Panteri  Vasileia</t>
-  </si>
-  <si>
-    <t>Rana  Francesco</t>
+    <t>Panteri Vasileia</t>
+  </si>
+  <si>
+    <t>Rana Francesco</t>
   </si>
   <si>
     <t>Wong Chin Ee</t>
@@ -4720,7 +4720,7 @@
     <t>Gregis Andrea</t>
   </si>
   <si>
-    <t>Baggio  Eros</t>
+    <t>Baggio Eros</t>
   </si>
   <si>
     <t>Cheung Ming Fung</t>
@@ -4786,7 +4786,7 @@
     <t>Airoldi Daniele</t>
   </si>
   <si>
-    <t>Gambare  Marco</t>
+    <t>Gambare Marco</t>
   </si>
   <si>
     <t>Park Gillsoo</t>
@@ -4876,7 +4876,7 @@
     <t>Massalin Andrea</t>
   </si>
   <si>
-    <t>Vanacker  Benoit</t>
+    <t>Vanacker Benoit</t>
   </si>
   <si>
     <t>Fukuhara Yuichi</t>
@@ -4897,7 +4897,7 @@
     <t>Grisone Benedetta</t>
   </si>
   <si>
-    <t>Christophe  Naudin</t>
+    <t>Christophe Naudin</t>
   </si>
   <si>
     <t>Galli Laura</t>
@@ -4957,7 +4957,7 @@
     <t>okic Zudana</t>
   </si>
   <si>
-    <t>Sotillo  Antoni</t>
+    <t>Sotillo Antoni</t>
   </si>
   <si>
     <t>Keane Conor</t>
@@ -4987,7 +4987,7 @@
     <t>Fioroni Massimo</t>
   </si>
   <si>
-    <t>Locori  Nicolas</t>
+    <t>Locori Nicolas</t>
   </si>
   <si>
     <t>Junnila Niko</t>
@@ -5152,7 +5152,7 @@
     <t>Chen Weidong</t>
   </si>
   <si>
-    <t>Ferramondo  Daniele</t>
+    <t>Ferramondo Daniele</t>
   </si>
   <si>
     <t>Cheng Angie</t>
@@ -5200,7 +5200,7 @@
     <t>Calgaro Gaetano</t>
   </si>
   <si>
-    <t>Oswald  Vicky</t>
+    <t>Oswald Vicky</t>
   </si>
   <si>
     <t>Parini Fabrizio</t>
@@ -5209,7 +5209,7 @@
     <t>Rosset Rene</t>
   </si>
   <si>
-    <t>Travaillot Marie-Laure</t>
+    <t>Travaillot Marie Laure</t>
   </si>
   <si>
     <t>Guldbjrnsen Johan Andre</t>
@@ -5233,7 +5233,7 @@
     <t>Elias Manuel</t>
   </si>
   <si>
-    <t>Travaglini  Gianluca</t>
+    <t>Travaglini Gianluca</t>
   </si>
   <si>
     <t>Zheng Xiaohui</t>
@@ -5281,7 +5281,7 @@
     <t>Kamkoum Adam</t>
   </si>
   <si>
-    <t>Del Giorgio  Danilo</t>
+    <t>Del Giorgio Danilo</t>
   </si>
   <si>
     <t>Ferrero Jerome</t>
@@ -5293,7 +5293,7 @@
     <t>Li Xuesheng</t>
   </si>
   <si>
-    <t>Travostino  Luca</t>
+    <t>Travostino Luca</t>
   </si>
   <si>
     <t>Eder Sigrid</t>
@@ -5371,7 +5371,7 @@
     <t>Bastamow Tanja</t>
   </si>
   <si>
-    <t>Lometto  Filippo</t>
+    <t>Lometto Filippo</t>
   </si>
   <si>
     <t>Kruk Sawomir</t>
@@ -5386,7 +5386,7 @@
     <t>Takase Haruo</t>
   </si>
   <si>
-    <t>Papaevangelou  Nikolaos</t>
+    <t>Papaevangelou Nikolaos</t>
   </si>
   <si>
     <t>An Xiaofang</t>
@@ -5443,7 +5443,7 @@
     <t>Spagarino Stefano</t>
   </si>
   <si>
-    <t>Usanawasin  Sakuna</t>
+    <t>Usanawasin Sakuna</t>
   </si>
   <si>
     <t>Coluccio Pasquale</t>
@@ -5461,7 +5461,7 @@
     <t>Arai Sunao</t>
   </si>
   <si>
-    <t>Boizeau  Jean</t>
+    <t>Boizeau Jean</t>
   </si>
   <si>
     <t>Li Qiuhua</t>
@@ -5488,7 +5488,7 @@
     <t>Li Wai Leung</t>
   </si>
   <si>
-    <t>Vaudry  Franck</t>
+    <t>Vaudry Franck</t>
   </si>
   <si>
     <t>Kusumoto Sumiko</t>
@@ -5524,7 +5524,7 @@
     <t>Ognibene Fabrizio</t>
   </si>
   <si>
-    <t>Luengo  Silvio Eduardo</t>
+    <t>Luengo Silvio Eduardo</t>
   </si>
   <si>
     <t>Arouca Rui</t>
@@ -5560,7 +5560,7 @@
     <t>Qu Minwei</t>
   </si>
   <si>
-    <t>Le Floch Jean-Pascal</t>
+    <t>Le Floch Jean Pascal</t>
   </si>
   <si>
     <t>Zhang Zhang Wenjun</t>
@@ -5599,10 +5599,10 @@
     <t>Lee Boram</t>
   </si>
   <si>
-    <t>Gavriil Charalampos-Antonios</t>
-  </si>
-  <si>
-    <t>Phalee  Nutcha</t>
+    <t>Gavriil Charalampos Antonios</t>
+  </si>
+  <si>
+    <t>Phalee Nutcha</t>
   </si>
   <si>
     <t>Lau Kam Fai</t>
@@ -5674,7 +5674,7 @@
     <t>Yoshimoto Makoto</t>
   </si>
   <si>
-    <t>Ennis-King Jonathan</t>
+    <t>Ennis King Jonathan</t>
   </si>
   <si>
     <t>Yang Victor</t>
@@ -5737,7 +5737,7 @@
     <t>Sebastien Gerard</t>
   </si>
   <si>
-    <t>Giordanengo  Lucia</t>
+    <t>Giordanengo Lucia</t>
   </si>
   <si>
     <t>Pitturru Giovanni</t>
@@ -5755,7 +5755,7 @@
     <t>Maran Stefano</t>
   </si>
   <si>
-    <t>Bouche Jean-Maxime</t>
+    <t>Bouche Jean Maxime</t>
   </si>
   <si>
     <t>Bonnet Florian</t>
@@ -5821,7 +5821,7 @@
     <t>Paris Jasmin</t>
   </si>
   <si>
-    <t>Fortin  Caroline</t>
+    <t>Fortin Caroline</t>
   </si>
   <si>
     <t>Mosconi Livio</t>
@@ -5890,7 +5890,7 @@
     <t>Van Der Heijden Peter</t>
   </si>
   <si>
-    <t>Molczyk  ukasz</t>
+    <t>Molczyk ukasz</t>
   </si>
   <si>
     <t>Van Ranst Wiebe</t>
@@ -5908,7 +5908,7 @@
     <t>Delesalle Ludovic</t>
   </si>
   <si>
-    <t>Finnegan  Irene</t>
+    <t>Finnegan Irene</t>
   </si>
   <si>
     <t>Kaufmann Benjamin</t>
@@ -5920,7 +5920,7 @@
     <t>Burdin Thomas</t>
   </si>
   <si>
-    <t>Auterives  Florence</t>
+    <t>Auterives Florence</t>
   </si>
   <si>
     <t>Tazo Masahiro</t>
@@ -5962,7 +5962,7 @@
     <t>Kjeldsberg Mona</t>
   </si>
   <si>
-    <t>Pelloux  Christian</t>
+    <t>Pelloux Christian</t>
   </si>
   <si>
     <t>Sund Marc</t>
@@ -6034,7 +6034,7 @@
     <t>Camarda Stefano</t>
   </si>
   <si>
-    <t>Fiore Jean-Pascal</t>
+    <t>Fiore Jean Pascal</t>
   </si>
   <si>
     <t>Marti Mases Antoni</t>
@@ -6070,7 +6070,7 @@
     <t>Cerquaglia Emanuele</t>
   </si>
   <si>
-    <t>Rogorz  Piotr</t>
+    <t>Rogorz Piotr</t>
   </si>
   <si>
     <t>Barbe Patrick</t>
@@ -6166,7 +6166,7 @@
     <t>Hashizume Ichiro</t>
   </si>
   <si>
-    <t>Mangini  Angelo</t>
+    <t>Mangini Angelo</t>
   </si>
   <si>
     <t>Azuma Hiroaki</t>
@@ -6214,7 +6214,7 @@
     <t>Marville Stephane</t>
   </si>
   <si>
-    <t>Campese  Stefano</t>
+    <t>Campese Stefano</t>
   </si>
   <si>
     <t>Fabries Stephane</t>
@@ -6256,7 +6256,7 @@
     <t>Di Pasqua Alessandra</t>
   </si>
   <si>
-    <t>Zanini  Giovanni</t>
+    <t>Zanini Giovanni</t>
   </si>
   <si>
     <t>Bellucci Laurent</t>
@@ -6265,13 +6265,13 @@
     <t>Roncelli Stefano</t>
   </si>
   <si>
-    <t>Trzetrzelewska-Lalik Ewa</t>
+    <t>Trzetrzelewska Lalik Ewa</t>
   </si>
   <si>
     <t>Gerhard Hiebaum</t>
   </si>
   <si>
-    <t>Zanella  Thierry</t>
+    <t>Zanella Thierry</t>
   </si>
   <si>
     <t>Tomlinson Max</t>
@@ -6292,7 +6292,7 @@
     <t>Omodei Ivan</t>
   </si>
   <si>
-    <t>Baik  Myungki</t>
+    <t>Baik Myungki</t>
   </si>
   <si>
     <t>Adamczyk Guillaume</t>
@@ -6355,7 +6355,7 @@
     <t>Mahfoud Meryem</t>
   </si>
   <si>
-    <t>Baraniuk  Yurii</t>
+    <t>Baraniuk Yurii</t>
   </si>
   <si>
     <t>Roveri Giovanni</t>
@@ -6514,7 +6514,7 @@
     <t>Lo Iacono Ignazio</t>
   </si>
   <si>
-    <t>Jimenez Trenado  Roberto</t>
+    <t>Jimenez Trenado Roberto</t>
   </si>
   <si>
     <t>Xenos Miltos</t>
@@ -6583,7 +6583,7 @@
     <t>Jorioz Romano</t>
   </si>
   <si>
-    <t>Saint-Eve Jean-Bernard</t>
+    <t>Saint Eve Jean Bernard</t>
   </si>
   <si>
     <t>Trempala Cheryl</t>
@@ -6601,7 +6601,7 @@
     <t>Ratelade Thierry</t>
   </si>
   <si>
-    <t>Marziano  Gianfranco</t>
+    <t>Marziano Gianfranco</t>
   </si>
   <si>
     <t>Mcconaughy Joseph</t>
